--- a/sinhvien.xlsx
+++ b/sinhvien.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BaiTapLonWWW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E42683-0E4C-4BAE-9C5F-05BA23C49AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B03D2-4B88-4A01-8C1F-E3D42A0EB28A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinhVien" sheetId="1" r:id="rId1"/>
     <sheet name="DeTai" sheetId="2" r:id="rId2"/>
     <sheet name="GiangVien" sheetId="3" r:id="rId3"/>
     <sheet name="Huongdan" sheetId="4" r:id="rId4"/>
+    <sheet name="TaiKhoan" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SinhVien!$A$1:$D$61</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="229">
   <si>
     <t>Võ Thị Tú Oanh</t>
   </si>
@@ -706,6 +707,27 @@
   </si>
   <si>
     <t>Khá</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>loaitk</t>
+  </si>
+  <si>
+    <t>pw123456</t>
+  </si>
+  <si>
+    <t>SinhVien</t>
+  </si>
+  <si>
+    <t>GiangVien</t>
+  </si>
+  <si>
+    <t>QuanTri</t>
   </si>
 </sst>
 </file>
@@ -713,9 +735,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +780,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -810,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -823,13 +863,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1187,7 @@
       </c>
       <c r="E1" s="10">
         <f ca="1">RANDBETWEEN(DATE(1999,1,1),DATE(1999,12,31))</f>
-        <v>36220</v>
+        <v>36198</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>182</v>
@@ -1164,7 +1208,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E61" ca="1" si="0">RANDBETWEEN(DATE(1999,1,1),DATE(1999,12,31))</f>
-        <v>36331</v>
+        <v>36445</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>182</v>
@@ -1185,7 +1229,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36473</v>
+        <v>36411</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>182</v>
@@ -1206,7 +1250,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36307</v>
+        <v>36277</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>181</v>
@@ -1227,7 +1271,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36186</v>
+        <v>36195</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>181</v>
@@ -1248,7 +1292,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36339</v>
+        <v>36356</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>181</v>
@@ -1269,7 +1313,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36386</v>
+        <v>36503</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>181</v>
@@ -1290,7 +1334,7 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36512</v>
+        <v>36161</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>181</v>
@@ -1311,7 +1355,7 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36450</v>
+        <v>36349</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>181</v>
@@ -1332,7 +1376,7 @@
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36386</v>
+        <v>36408</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>181</v>
@@ -1353,7 +1397,7 @@
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36499</v>
+        <v>36369</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>182</v>
@@ -1374,7 +1418,7 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36162</v>
+        <v>36361</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>181</v>
@@ -1395,7 +1439,7 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36353</v>
+        <v>36515</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>181</v>
@@ -1416,7 +1460,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36465</v>
+        <v>36225</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>181</v>
@@ -1437,7 +1481,7 @@
       </c>
       <c r="E15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36491</v>
+        <v>36444</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>181</v>
@@ -1458,7 +1502,7 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36300</v>
+        <v>36431</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>181</v>
@@ -1479,7 +1523,7 @@
       </c>
       <c r="E17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36201</v>
+        <v>36243</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>181</v>
@@ -1500,7 +1544,7 @@
       </c>
       <c r="E18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36337</v>
+        <v>36457</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>181</v>
@@ -1521,7 +1565,7 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36291</v>
+        <v>36341</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>181</v>
@@ -1542,7 +1586,7 @@
       </c>
       <c r="E20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36385</v>
+        <v>36332</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>181</v>
@@ -1563,7 +1607,7 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36170</v>
+        <v>36257</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>181</v>
@@ -1584,7 +1628,7 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36288</v>
+        <v>36406</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>181</v>
@@ -1605,7 +1649,7 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36226</v>
+        <v>36190</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>181</v>
@@ -1626,7 +1670,7 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36328</v>
+        <v>36236</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>181</v>
@@ -1647,7 +1691,7 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36278</v>
+        <v>36355</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>181</v>
@@ -1668,7 +1712,7 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36196</v>
+        <v>36363</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>181</v>
@@ -1689,7 +1733,7 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36188</v>
+        <v>36431</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>181</v>
@@ -1710,7 +1754,7 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36350</v>
+        <v>36185</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>181</v>
@@ -1731,7 +1775,7 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36226</v>
+        <v>36323</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>181</v>
@@ -1752,7 +1796,7 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36341</v>
+        <v>36524</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>181</v>
@@ -1773,7 +1817,7 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36180</v>
+        <v>36401</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>181</v>
@@ -1794,7 +1838,7 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36403</v>
+        <v>36201</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>181</v>
@@ -1815,7 +1859,7 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36318</v>
+        <v>36232</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>181</v>
@@ -1836,7 +1880,7 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36411</v>
+        <v>36520</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>181</v>
@@ -1857,7 +1901,7 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36398</v>
+        <v>36405</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>182</v>
@@ -1878,7 +1922,7 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36403</v>
+        <v>36387</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>181</v>
@@ -1899,7 +1943,7 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36507</v>
+        <v>36520</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>181</v>
@@ -1920,7 +1964,7 @@
       </c>
       <c r="E38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36451</v>
+        <v>36296</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>181</v>
@@ -1941,7 +1985,7 @@
       </c>
       <c r="E39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36259</v>
+        <v>36309</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>181</v>
@@ -1962,7 +2006,7 @@
       </c>
       <c r="E40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36481</v>
+        <v>36491</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>181</v>
@@ -1983,7 +2027,7 @@
       </c>
       <c r="E41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36386</v>
+        <v>36488</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>181</v>
@@ -2004,7 +2048,7 @@
       </c>
       <c r="E42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36335</v>
+        <v>36426</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>181</v>
@@ -2025,7 +2069,7 @@
       </c>
       <c r="E43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36460</v>
+        <v>36472</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>181</v>
@@ -2046,7 +2090,7 @@
       </c>
       <c r="E44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36320</v>
+        <v>36366</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>181</v>
@@ -2067,7 +2111,7 @@
       </c>
       <c r="E45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36506</v>
+        <v>36257</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>181</v>
@@ -2088,7 +2132,7 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36226</v>
+        <v>36303</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>181</v>
@@ -2109,7 +2153,7 @@
       </c>
       <c r="E47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36450</v>
+        <v>36501</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>181</v>
@@ -2130,7 +2174,7 @@
       </c>
       <c r="E48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36472</v>
+        <v>36274</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>182</v>
@@ -2151,7 +2195,7 @@
       </c>
       <c r="E49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36189</v>
+        <v>36417</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>182</v>
@@ -2172,7 +2216,7 @@
       </c>
       <c r="E50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36524</v>
+        <v>36179</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>181</v>
@@ -2193,7 +2237,7 @@
       </c>
       <c r="E51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36178</v>
+        <v>36330</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>181</v>
@@ -2214,7 +2258,7 @@
       </c>
       <c r="E52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36416</v>
+        <v>36398</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>181</v>
@@ -2235,7 +2279,7 @@
       </c>
       <c r="E53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36448</v>
+        <v>36358</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>181</v>
@@ -2256,7 +2300,7 @@
       </c>
       <c r="E54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36217</v>
+        <v>36517</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>181</v>
@@ -2277,7 +2321,7 @@
       </c>
       <c r="E55" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36391</v>
+        <v>36319</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>182</v>
@@ -2298,7 +2342,7 @@
       </c>
       <c r="E56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36451</v>
+        <v>36457</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>181</v>
@@ -2319,7 +2363,7 @@
       </c>
       <c r="E57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36331</v>
+        <v>36350</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>181</v>
@@ -2340,7 +2384,7 @@
       </c>
       <c r="E58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36427</v>
+        <v>36201</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>181</v>
@@ -2361,7 +2405,7 @@
       </c>
       <c r="E59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36238</v>
+        <v>36520</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>181</v>
@@ -2382,7 +2426,7 @@
       </c>
       <c r="E60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36376</v>
+        <v>36290</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>181</v>
@@ -2403,7 +2447,7 @@
       </c>
       <c r="E61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36503</v>
+        <v>36205</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>181</v>
@@ -2644,7 +2688,7 @@
       </c>
       <c r="E1" s="10">
         <f ca="1">RANDBETWEEN(DATE(1971,1,1),DATE(1973,12,31))</f>
-        <v>26686</v>
+        <v>26125</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>181</v>
@@ -2664,8 +2708,8 @@
         <v>178</v>
       </c>
       <c r="E2" s="10">
-        <f t="shared" ref="E1:E4" ca="1" si="0">RANDBETWEEN(DATE(1999,1,1),DATE(1999,12,31))</f>
-        <v>36264</v>
+        <f t="shared" ref="E2:E4" ca="1" si="0">RANDBETWEEN(DATE(1999,1,1),DATE(1999,12,31))</f>
+        <v>36440</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>181</v>
@@ -2686,7 +2730,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36470</v>
+        <v>36410</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>181</v>
@@ -2707,7 +2751,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>36452</v>
+        <v>36395</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>181</v>
@@ -2917,4 +2961,764 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F625D050-016B-41FC-8543-B81059AA8B2D}">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>17106431</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>17105661</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>17108101</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>17044781</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>17059571</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>17059371</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>17027641</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>17066451</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>17050371</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>17045181</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>17038441</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>17095181</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>17038181</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>17064391</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>17027461</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>16028491</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>16026511</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>17030061</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>17036561</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>17041331</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>17042171</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>17094651</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>17039181</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>17045611</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>17046601</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>17040321</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>17041661</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>17034301</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>17015461</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>17056221</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>17060101</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>17052411</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>17061791</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>17063551</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>17028671</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>17069131</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>17024881</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>17087871</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>17068241</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>17063841</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>17013891</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>17014201</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>16076691</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>17105711</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>17029941</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>17040391</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>17039931</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>17087161</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>17044401</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>17080351</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>17056131</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>17073081</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
+        <v>17085541</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
+        <v>15086641</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
+        <v>15092441</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
+        <v>17031361</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
+        <v>17041281</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
+        <v>17036101</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
+        <v>16050951</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
+        <v>17013401</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
+        <v>14022841</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
+        <v>10036101</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>10050951</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
+        <v>10013401</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
+        <v>10022841</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>10098765</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>